--- a/example_updated.xlsx
+++ b/example_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="136">
   <si>
     <t>Cluster Type</t>
   </si>
@@ -67,15 +67,15 @@
     <t>cluster_7</t>
   </si>
   <si>
+    <t>1.900051</t>
+  </si>
+  <si>
+    <t>cluster_8</t>
+  </si>
+  <si>
     <t>1.804787</t>
   </si>
   <si>
-    <t>cluster_8</t>
-  </si>
-  <si>
-    <t>1.900051</t>
-  </si>
-  <si>
     <t>cluster_9</t>
   </si>
   <si>
@@ -106,15 +106,15 @@
     <t>cluster_14</t>
   </si>
   <si>
+    <t>1.937958</t>
+  </si>
+  <si>
+    <t>cluster_15</t>
+  </si>
+  <si>
     <t>1.869317</t>
   </si>
   <si>
-    <t>cluster_15</t>
-  </si>
-  <si>
-    <t>1.937958</t>
-  </si>
-  <si>
     <t>cluster_16</t>
   </si>
   <si>
@@ -190,21 +190,21 @@
     <t>cluster_28</t>
   </si>
   <si>
+    <t>1.966250</t>
+  </si>
+  <si>
+    <t>cluster_29</t>
+  </si>
+  <si>
+    <t>1.942124</t>
+  </si>
+  <si>
+    <t>cluster_30</t>
+  </si>
+  <si>
     <t>1.961449</t>
   </si>
   <si>
-    <t>cluster_29</t>
-  </si>
-  <si>
-    <t>1.966250</t>
-  </si>
-  <si>
-    <t>cluster_30</t>
-  </si>
-  <si>
-    <t>1.942124</t>
-  </si>
-  <si>
     <t>cluster_31</t>
   </si>
   <si>
@@ -244,15 +244,15 @@
     <t>cluster_38</t>
   </si>
   <si>
+    <t>1.933086</t>
+  </si>
+  <si>
+    <t>cluster_39</t>
+  </si>
+  <si>
     <t>1.975819</t>
   </si>
   <si>
-    <t>cluster_39</t>
-  </si>
-  <si>
-    <t>1.933086</t>
-  </si>
-  <si>
     <t>cluster_40</t>
   </si>
   <si>
@@ -262,15 +262,15 @@
     <t>cluster_41</t>
   </si>
   <si>
+    <t>1.937262</t>
+  </si>
+  <si>
+    <t>cluster_42</t>
+  </si>
+  <si>
     <t>1.944896</t>
   </si>
   <si>
-    <t>cluster_42</t>
-  </si>
-  <si>
-    <t>1.937262</t>
-  </si>
-  <si>
     <t>cluster_43</t>
   </si>
   <si>
@@ -313,112 +313,109 @@
     <t>cluster_50</t>
   </si>
   <si>
+    <t>1.953880</t>
+  </si>
+  <si>
+    <t>cluster_51</t>
+  </si>
+  <si>
+    <t>1.824090</t>
+  </si>
+  <si>
+    <t>cluster_52</t>
+  </si>
+  <si>
     <t>1.872197</t>
   </si>
   <si>
-    <t>cluster_51</t>
-  </si>
-  <si>
-    <t>1.824829</t>
-  </si>
-  <si>
-    <t>cluster_52</t>
-  </si>
-  <si>
-    <t>1.953880</t>
-  </si>
-  <si>
     <t>cluster_53</t>
   </si>
   <si>
-    <t>1.838068</t>
+    <t>1.838801</t>
   </si>
   <si>
     <t>cluster_54</t>
   </si>
   <si>
+    <t>cluster_55</t>
+  </si>
+  <si>
+    <t>1.899342</t>
+  </si>
+  <si>
+    <t>cluster_56</t>
+  </si>
+  <si>
+    <t>1.762494</t>
+  </si>
+  <si>
+    <t>cluster_57</t>
+  </si>
+  <si>
     <t>1.579495</t>
   </si>
   <si>
-    <t>cluster_55</t>
-  </si>
-  <si>
-    <t>1.895082</t>
-  </si>
-  <si>
-    <t>cluster_56</t>
-  </si>
-  <si>
-    <t>1.757902</t>
-  </si>
-  <si>
-    <t>cluster_57</t>
-  </si>
-  <si>
-    <t>1.881528</t>
-  </si>
-  <si>
     <t>cluster_58</t>
   </si>
   <si>
+    <t>1.952500</t>
+  </si>
+  <si>
+    <t>cluster_59</t>
+  </si>
+  <si>
     <t>1.835134</t>
   </si>
   <si>
-    <t>cluster_59</t>
-  </si>
-  <si>
     <t>cluster_60</t>
   </si>
   <si>
-    <t>1.952500</t>
+    <t>2.020316</t>
   </si>
   <si>
     <t>cluster_61</t>
   </si>
   <si>
-    <t>2.020316</t>
-  </si>
-  <si>
     <t>cluster_62</t>
   </si>
   <si>
+    <t>1.928202</t>
+  </si>
+  <si>
+    <t>cluster_63</t>
+  </si>
+  <si>
+    <t>1.443121</t>
+  </si>
+  <si>
+    <t>cluster_64</t>
+  </si>
+  <si>
     <t>1.531870</t>
   </si>
   <si>
-    <t>cluster_63</t>
-  </si>
-  <si>
-    <t>1.443121</t>
-  </si>
-  <si>
-    <t>cluster_64</t>
+    <t>cluster_65</t>
   </si>
   <si>
     <t>1.793556</t>
   </si>
   <si>
-    <t>cluster_65</t>
+    <t>cluster_66</t>
   </si>
   <si>
     <t>1.791302</t>
   </si>
   <si>
-    <t>cluster_66</t>
-  </si>
-  <si>
-    <t>1.928202</t>
-  </si>
-  <si>
     <t>cluster_67</t>
   </si>
   <si>
+    <t>1.920501</t>
+  </si>
+  <si>
+    <t>cluster_68</t>
+  </si>
+  <si>
     <t>1.853395</t>
-  </si>
-  <si>
-    <t>cluster_68</t>
-  </si>
-  <si>
-    <t>1.920501</t>
   </si>
   <si>
     <t>cluster_69</t>
@@ -750,10 +747,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/example_updated.xlsx
+++ b/example_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="138">
   <si>
     <t>Cluster Type</t>
   </si>
@@ -67,15 +67,15 @@
     <t>cluster_7</t>
   </si>
   <si>
+    <t>1.804787</t>
+  </si>
+  <si>
+    <t>cluster_8</t>
+  </si>
+  <si>
     <t>1.900051</t>
   </si>
   <si>
-    <t>cluster_8</t>
-  </si>
-  <si>
-    <t>1.804787</t>
-  </si>
-  <si>
     <t>cluster_9</t>
   </si>
   <si>
@@ -106,15 +106,15 @@
     <t>cluster_14</t>
   </si>
   <si>
+    <t>1.869317</t>
+  </si>
+  <si>
+    <t>cluster_15</t>
+  </si>
+  <si>
     <t>1.937958</t>
   </si>
   <si>
-    <t>cluster_15</t>
-  </si>
-  <si>
-    <t>1.869317</t>
-  </si>
-  <si>
     <t>cluster_16</t>
   </si>
   <si>
@@ -124,304 +124,310 @@
     <t>cluster_17</t>
   </si>
   <si>
-    <t>1.990085</t>
+    <t>1.753298</t>
   </si>
   <si>
     <t>cluster_18</t>
   </si>
   <si>
+    <t>1.955258</t>
+  </si>
+  <si>
+    <t>cluster_19</t>
+  </si>
+  <si>
+    <t>1.989408</t>
+  </si>
+  <si>
+    <t>cluster_20</t>
+  </si>
+  <si>
+    <t>1.680326</t>
+  </si>
+  <si>
+    <t>cluster_21</t>
+  </si>
+  <si>
+    <t>1.880095</t>
+  </si>
+  <si>
+    <t>cluster_22</t>
+  </si>
+  <si>
+    <t>2.014306</t>
+  </si>
+  <si>
+    <t>cluster_23</t>
+  </si>
+  <si>
+    <t>1.828516</t>
+  </si>
+  <si>
+    <t>cluster_24</t>
+  </si>
+  <si>
+    <t>1.863543</t>
+  </si>
+  <si>
+    <t>cluster_25</t>
+  </si>
+  <si>
+    <t>1.905714</t>
+  </si>
+  <si>
+    <t>cluster_26</t>
+  </si>
+  <si>
+    <t>1.939347</t>
+  </si>
+  <si>
+    <t>cluster_27</t>
+  </si>
+  <si>
+    <t>1.668257</t>
+  </si>
+  <si>
+    <t>cluster_28</t>
+  </si>
+  <si>
+    <t>1.942124</t>
+  </si>
+  <si>
+    <t>cluster_29</t>
+  </si>
+  <si>
+    <t>1.966250</t>
+  </si>
+  <si>
+    <t>cluster_30</t>
+  </si>
+  <si>
+    <t>1.961449</t>
+  </si>
+  <si>
+    <t>cluster_31</t>
+  </si>
+  <si>
+    <t>1.839534</t>
+  </si>
+  <si>
+    <t>cluster_32</t>
+  </si>
+  <si>
+    <t>1.901469</t>
+  </si>
+  <si>
+    <t>cluster_33</t>
+  </si>
+  <si>
+    <t>cluster_34</t>
+  </si>
+  <si>
+    <t>2.002904</t>
+  </si>
+  <si>
+    <t>cluster_35</t>
+  </si>
+  <si>
+    <t>1.951120</t>
+  </si>
+  <si>
+    <t>cluster_36</t>
+  </si>
+  <si>
+    <t>1.829253</t>
+  </si>
+  <si>
+    <t>cluster_37</t>
+  </si>
+  <si>
+    <t>cluster_38</t>
+  </si>
+  <si>
+    <t>1.933086</t>
+  </si>
+  <si>
+    <t>cluster_39</t>
+  </si>
+  <si>
+    <t>1.975819</t>
+  </si>
+  <si>
+    <t>cluster_40</t>
+  </si>
+  <si>
+    <t>1.936567</t>
+  </si>
+  <si>
+    <t>cluster_41</t>
+  </si>
+  <si>
+    <t>2.027637</t>
+  </si>
+  <si>
+    <t>cluster_42</t>
+  </si>
+  <si>
+    <t>1.945589</t>
+  </si>
+  <si>
+    <t>cluster_43</t>
+  </si>
+  <si>
+    <t>1.872916</t>
+  </si>
+  <si>
+    <t>cluster_44</t>
+  </si>
+  <si>
+    <t>2.037578</t>
+  </si>
+  <si>
+    <t>cluster_45</t>
+  </si>
+  <si>
+    <t>cluster_46</t>
+  </si>
+  <si>
+    <t>1.860649</t>
+  </si>
+  <si>
+    <t>cluster_47</t>
+  </si>
+  <si>
+    <t>1.903593</t>
+  </si>
+  <si>
+    <t>cluster_48</t>
+  </si>
+  <si>
+    <t>1.846842</t>
+  </si>
+  <si>
+    <t>cluster_49</t>
+  </si>
+  <si>
+    <t>1.953880</t>
+  </si>
+  <si>
+    <t>cluster_50</t>
+  </si>
+  <si>
+    <t>1.838068</t>
+  </si>
+  <si>
+    <t>cluster_51</t>
+  </si>
+  <si>
+    <t>1.872197</t>
+  </si>
+  <si>
+    <t>cluster_52</t>
+  </si>
+  <si>
+    <t>1.916991</t>
+  </si>
+  <si>
+    <t>cluster_53</t>
+  </si>
+  <si>
+    <t>1.824829</t>
+  </si>
+  <si>
+    <t>cluster_54</t>
+  </si>
+  <si>
+    <t>1.579495</t>
+  </si>
+  <si>
+    <t>cluster_55</t>
+  </si>
+  <si>
+    <t>1.757902</t>
+  </si>
+  <si>
+    <t>cluster_56</t>
+  </si>
+  <si>
+    <t>1.881528</t>
+  </si>
+  <si>
+    <t>cluster_57</t>
+  </si>
+  <si>
+    <t>1.895082</t>
+  </si>
+  <si>
+    <t>cluster_58</t>
+  </si>
+  <si>
+    <t>1.991438</t>
+  </si>
+  <si>
+    <t>cluster_59</t>
+  </si>
+  <si>
     <t>1.954569</t>
   </si>
   <si>
-    <t>cluster_19</t>
-  </si>
-  <si>
-    <t>1.753298</t>
-  </si>
-  <si>
-    <t>cluster_20</t>
-  </si>
-  <si>
-    <t>1.680326</t>
-  </si>
-  <si>
-    <t>cluster_21</t>
-  </si>
-  <si>
-    <t>1.880095</t>
-  </si>
-  <si>
-    <t>cluster_22</t>
-  </si>
-  <si>
-    <t>2.014306</t>
-  </si>
-  <si>
-    <t>cluster_23</t>
-  </si>
-  <si>
-    <t>1.828516</t>
-  </si>
-  <si>
-    <t>cluster_24</t>
-  </si>
-  <si>
-    <t>1.863543</t>
-  </si>
-  <si>
-    <t>cluster_25</t>
-  </si>
-  <si>
-    <t>1.905714</t>
-  </si>
-  <si>
-    <t>cluster_26</t>
-  </si>
-  <si>
-    <t>1.939347</t>
-  </si>
-  <si>
-    <t>cluster_27</t>
-  </si>
-  <si>
-    <t>1.668257</t>
-  </si>
-  <si>
-    <t>cluster_28</t>
-  </si>
-  <si>
-    <t>1.966250</t>
-  </si>
-  <si>
-    <t>cluster_29</t>
-  </si>
-  <si>
-    <t>1.942124</t>
-  </si>
-  <si>
-    <t>cluster_30</t>
-  </si>
-  <si>
-    <t>1.961449</t>
-  </si>
-  <si>
-    <t>cluster_31</t>
-  </si>
-  <si>
-    <t>1.839534</t>
-  </si>
-  <si>
-    <t>cluster_32</t>
-  </si>
-  <si>
-    <t>1.901469</t>
-  </si>
-  <si>
-    <t>cluster_33</t>
-  </si>
-  <si>
-    <t>cluster_34</t>
-  </si>
-  <si>
-    <t>2.002904</t>
-  </si>
-  <si>
-    <t>cluster_35</t>
-  </si>
-  <si>
-    <t>1.951120</t>
-  </si>
-  <si>
-    <t>cluster_36</t>
-  </si>
-  <si>
-    <t>1.829253</t>
-  </si>
-  <si>
-    <t>cluster_37</t>
-  </si>
-  <si>
-    <t>cluster_38</t>
-  </si>
-  <si>
-    <t>1.933086</t>
-  </si>
-  <si>
-    <t>cluster_39</t>
-  </si>
-  <si>
-    <t>1.975819</t>
-  </si>
-  <si>
-    <t>cluster_40</t>
-  </si>
-  <si>
-    <t>2.027637</t>
-  </si>
-  <si>
-    <t>cluster_41</t>
-  </si>
-  <si>
-    <t>1.937262</t>
-  </si>
-  <si>
-    <t>cluster_42</t>
-  </si>
-  <si>
-    <t>1.944896</t>
-  </si>
-  <si>
-    <t>cluster_43</t>
-  </si>
-  <si>
-    <t>1.872916</t>
-  </si>
-  <si>
-    <t>cluster_44</t>
-  </si>
-  <si>
-    <t>2.037578</t>
-  </si>
-  <si>
-    <t>cluster_45</t>
-  </si>
-  <si>
-    <t>cluster_46</t>
-  </si>
-  <si>
-    <t>1.860649</t>
-  </si>
-  <si>
-    <t>cluster_47</t>
-  </si>
-  <si>
-    <t>1.903593</t>
-  </si>
-  <si>
-    <t>cluster_48</t>
-  </si>
-  <si>
-    <t>1.846842</t>
-  </si>
-  <si>
-    <t>cluster_49</t>
-  </si>
-  <si>
-    <t>1.916991</t>
-  </si>
-  <si>
-    <t>cluster_50</t>
-  </si>
-  <si>
-    <t>1.953880</t>
-  </si>
-  <si>
-    <t>cluster_51</t>
-  </si>
-  <si>
-    <t>1.824090</t>
-  </si>
-  <si>
-    <t>cluster_52</t>
-  </si>
-  <si>
-    <t>1.872197</t>
-  </si>
-  <si>
-    <t>cluster_53</t>
-  </si>
-  <si>
-    <t>1.838801</t>
-  </si>
-  <si>
-    <t>cluster_54</t>
-  </si>
-  <si>
-    <t>cluster_55</t>
-  </si>
-  <si>
-    <t>1.899342</t>
-  </si>
-  <si>
-    <t>cluster_56</t>
-  </si>
-  <si>
-    <t>1.762494</t>
-  </si>
-  <si>
-    <t>cluster_57</t>
-  </si>
-  <si>
-    <t>1.579495</t>
-  </si>
-  <si>
-    <t>cluster_58</t>
-  </si>
-  <si>
-    <t>1.952500</t>
-  </si>
-  <si>
-    <t>cluster_59</t>
-  </si>
-  <si>
-    <t>1.835134</t>
-  </si>
-  <si>
     <t>cluster_60</t>
   </si>
   <si>
-    <t>2.020316</t>
+    <t>2.018982</t>
   </si>
   <si>
     <t>cluster_61</t>
   </si>
   <si>
+    <t>1.832931</t>
+  </si>
+  <si>
     <t>cluster_62</t>
   </si>
   <si>
-    <t>1.928202</t>
+    <t>1.443121</t>
   </si>
   <si>
     <t>cluster_63</t>
   </si>
   <si>
-    <t>1.443121</t>
+    <t>1.791302</t>
   </si>
   <si>
     <t>cluster_64</t>
   </si>
   <si>
+    <t>1.928900</t>
+  </si>
+  <si>
+    <t>cluster_65</t>
+  </si>
+  <si>
+    <t>1.792805</t>
+  </si>
+  <si>
+    <t>cluster_66</t>
+  </si>
+  <si>
     <t>1.531870</t>
   </si>
   <si>
-    <t>cluster_65</t>
-  </si>
-  <si>
-    <t>1.793556</t>
-  </si>
-  <si>
-    <t>cluster_66</t>
-  </si>
-  <si>
-    <t>1.791302</t>
-  </si>
-  <si>
     <t>cluster_67</t>
   </si>
   <si>
+    <t>1.632342</t>
+  </si>
+  <si>
+    <t>cluster_68</t>
+  </si>
+  <si>
+    <t>1.853395</t>
+  </si>
+  <si>
+    <t>cluster_69</t>
+  </si>
+  <si>
     <t>1.920501</t>
-  </si>
-  <si>
-    <t>cluster_68</t>
-  </si>
-  <si>
-    <t>1.853395</t>
-  </si>
-  <si>
-    <t>cluster_69</t>
-  </si>
-  <si>
-    <t>1.632342</t>
   </si>
 </sst>
 </file>
@@ -747,10 +753,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
